--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/83.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/83.xlsx
@@ -479,13 +479,13 @@
         <v>-0.07006075256995986</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.638028644113454</v>
+        <v>-2.647175624502645</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.03593137995133549</v>
+        <v>-0.03460419255873172</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2155492837233935</v>
+        <v>0.2266717971845711</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.06522443485412566</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.78966651284588</v>
+        <v>-2.799821692113735</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1089394948787548</v>
+        <v>-0.1121818331963474</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2320299503298028</v>
+        <v>0.2424748419191133</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.06086957512846401</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.018828959117044</v>
+        <v>-3.034390475263594</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2025367020911583</v>
+        <v>-0.2116202507299671</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2472389323251924</v>
+        <v>0.2585438120687176</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.05986043411578845</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.208660975508447</v>
+        <v>-3.228281818719094</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2661782651857576</v>
+        <v>-0.2752880404136666</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2916783627537326</v>
+        <v>0.2998952141108824</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.06482722828967917</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.353793735263017</v>
+        <v>-3.376305907441787</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3200086442741877</v>
+        <v>-0.3328041701516852</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2819964819310339</v>
+        <v>0.2887135383440603</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.07532616181273645</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.126378406770397</v>
+        <v>-3.134012173960576</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3843534459090776</v>
+        <v>-0.3991263346205923</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2864598814434762</v>
+        <v>0.286850230676595</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.08732856173059744</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.809499303491696</v>
+        <v>-2.817635035398839</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.4242239605480981</v>
+        <v>-0.4329665635286048</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2799355599643022</v>
+        <v>0.2767444549835564</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.09523848841557415</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.383358095299333</v>
+        <v>-2.390275205694333</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.4553634606994702</v>
+        <v>-0.4558526170822222</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2456909536476058</v>
+        <v>0.2462880659901421</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.09127293897094543</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.01519594663864</v>
+        <v>-2.031776640236036</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5064851820624622</v>
+        <v>-0.5121623237216331</v>
       </c>
       <c r="G10" t="n">
-        <v>0.303433363956698</v>
+        <v>0.3047489628564435</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.06870862245527017</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.5546863182322</v>
+        <v>-1.569742210137726</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6092074125196933</v>
+        <v>-0.6159409367909919</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3012968118260495</v>
+        <v>0.3063054804235045</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.02307023705269797</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.111890616040554</v>
+        <v>-1.122378202077237</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7876555644399331</v>
+        <v>-0.7946415958714054</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3096996889896075</v>
+        <v>0.3168491791624482</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.04928672914650521</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.5676632755436761</v>
+        <v>-0.5727853893870063</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.061849064196083</v>
+        <v>-1.070767324331493</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3360879070691122</v>
+        <v>0.3484205031529579</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1473637105981648</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.006264838234309953</v>
+        <v>-0.008679514193555515</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.443010452240307</v>
+        <v>-1.448050226792277</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4196604580384846</v>
+        <v>0.4259688675980898</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2691758105365669</v>
       </c>
       <c r="E15" t="n">
-        <v>0.492072680464721</v>
+        <v>0.4844376934331888</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.864246068429586</v>
+        <v>-1.864556518054051</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4891188346272302</v>
+        <v>0.495144850913501</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.411305877137099</v>
       </c>
       <c r="E16" t="n">
-        <v>1.074302958488417</v>
+        <v>1.062852917623826</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.343882199338168</v>
+        <v>-2.329738138844381</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5807746643255446</v>
+        <v>0.5857247805380318</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5697954885889419</v>
       </c>
       <c r="E17" t="n">
-        <v>1.587017527379753</v>
+        <v>1.577691230311599</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.688426389633146</v>
+        <v>-2.670585599917588</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7002227495012378</v>
+        <v>0.70588464314349</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7453018734621639</v>
       </c>
       <c r="E18" t="n">
-        <v>2.038738198834253</v>
+        <v>2.037290857068331</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.013140838885691</v>
+        <v>-2.991220899684043</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8343430864767822</v>
+        <v>0.8375805454289609</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9324472678647878</v>
       </c>
       <c r="E19" t="n">
-        <v>2.411097821592326</v>
+        <v>2.408948461127467</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.310382021174797</v>
+        <v>-3.292835213225432</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9750237302514287</v>
+        <v>0.9765137664647243</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.119806497460902</v>
       </c>
       <c r="E20" t="n">
-        <v>2.754795441987978</v>
+        <v>2.750693115516171</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.562641553553733</v>
+        <v>-3.541156792754944</v>
       </c>
       <c r="G20" t="n">
-        <v>1.072061500001368</v>
+        <v>1.082079447116955</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.295632929894137</v>
       </c>
       <c r="E21" t="n">
-        <v>3.07675914898839</v>
+        <v>3.089164935553445</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.779999595047115</v>
+        <v>-3.759280589657984</v>
       </c>
       <c r="G21" t="n">
-        <v>1.219581184324391</v>
+        <v>1.23138985854691</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.44821791061153</v>
       </c>
       <c r="E22" t="n">
-        <v>3.324213726275905</v>
+        <v>3.339789880518697</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.957829287401132</v>
+        <v>-3.946617420560811</v>
       </c>
       <c r="G22" t="n">
-        <v>1.308542384472832</v>
+        <v>1.323801379963715</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.571195203928603</v>
       </c>
       <c r="E23" t="n">
-        <v>3.568318619206719</v>
+        <v>3.592197013701406</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.092410114487621</v>
+        <v>-4.077078538436206</v>
       </c>
       <c r="G23" t="n">
-        <v>1.392940768038521</v>
+        <v>1.403405177089488</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.661571688577651</v>
       </c>
       <c r="E24" t="n">
-        <v>3.725784280005473</v>
+        <v>3.753546649369691</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.229079309971296</v>
+        <v>-4.217944598096584</v>
       </c>
       <c r="G24" t="n">
-        <v>1.451565733566868</v>
+        <v>1.463686077255205</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.717192734406891</v>
       </c>
       <c r="E25" t="n">
-        <v>3.881134735897263</v>
+        <v>3.912400489628722</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.188861750467206</v>
+        <v>-4.17882672557267</v>
       </c>
       <c r="G25" t="n">
-        <v>1.454068238103565</v>
+        <v>1.465987917889253</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.738824721181267</v>
       </c>
       <c r="E26" t="n">
-        <v>3.906633079709393</v>
+        <v>3.939188205751497</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.078086127394194</v>
+        <v>-4.059668352718433</v>
       </c>
       <c r="G26" t="n">
-        <v>1.432311147722608</v>
+        <v>1.441470326525334</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.727838608978955</v>
       </c>
       <c r="E27" t="n">
-        <v>4.056041688368304</v>
+        <v>4.095881706973487</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.94729290771031</v>
+        <v>-3.925985023907778</v>
       </c>
       <c r="G27" t="n">
-        <v>1.371097678842143</v>
+        <v>1.378349025768001</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.686835471125783</v>
       </c>
       <c r="E28" t="n">
-        <v>3.959937707174466</v>
+        <v>4.015369737960037</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.811011926737385</v>
+        <v>-3.788558306943582</v>
       </c>
       <c r="G28" t="n">
-        <v>1.302838406303884</v>
+        <v>1.310467294128649</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.620134347278756</v>
       </c>
       <c r="E29" t="n">
-        <v>3.899449433978654</v>
+        <v>3.955446251310893</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.734383627633128</v>
+        <v>-3.719768708376891</v>
       </c>
       <c r="G29" t="n">
-        <v>1.211439353210481</v>
+        <v>1.218660814023178</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.533369201205997</v>
       </c>
       <c r="E30" t="n">
-        <v>3.748051264072191</v>
+        <v>3.811580601762268</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.557477050223369</v>
+        <v>-3.541904555504638</v>
       </c>
       <c r="G30" t="n">
-        <v>1.131810549336961</v>
+        <v>1.141386303961906</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.432141934264209</v>
       </c>
       <c r="E31" t="n">
-        <v>3.573803025932038</v>
+        <v>3.634540146763963</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.410503854826712</v>
+        <v>-3.390895210029601</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9901058487460548</v>
+        <v>0.9939166331343766</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.322466158526268</v>
       </c>
       <c r="E32" t="n">
-        <v>3.405516152486421</v>
+        <v>3.469051589383266</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.275808362652995</v>
+        <v>-3.253378529765585</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9194587367583272</v>
+        <v>0.9230731266887362</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.209949206983704</v>
       </c>
       <c r="E33" t="n">
-        <v>3.245058220847542</v>
+        <v>3.31628109795412</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.139625273948688</v>
+        <v>-3.109012440301688</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8005906861462214</v>
+        <v>0.8026583172403974</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.098310611434203</v>
       </c>
       <c r="E34" t="n">
-        <v>2.980756414626892</v>
+        <v>3.042648725220578</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.965018097490269</v>
+        <v>-2.930943659042386</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7007759475550482</v>
+        <v>0.7036486739425316</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9920050544951732</v>
       </c>
       <c r="E35" t="n">
-        <v>2.689885243885743</v>
+        <v>2.748314424876853</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.877213306944942</v>
+        <v>-2.848178643049028</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6463661438237075</v>
+        <v>0.6551477817275261</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8926915097863015</v>
       </c>
       <c r="E36" t="n">
-        <v>2.412600666139834</v>
+        <v>2.46780092706824</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.791524941147931</v>
+        <v>-2.771564067159997</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5997230699900765</v>
+        <v>0.607805128877665</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8008491713976954</v>
       </c>
       <c r="E37" t="n">
-        <v>2.152856187215845</v>
+        <v>2.19455646388511</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.733487939151969</v>
+        <v>-2.709604665291869</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5328910118354081</v>
+        <v>0.5392268678254669</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7181388855502521</v>
       </c>
       <c r="E38" t="n">
-        <v>1.919345616440144</v>
+        <v>1.962865286488149</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.652200151037695</v>
+        <v>-2.633814092237125</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5396239261860298</v>
+        <v>0.544153197131561</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6437585246878382</v>
       </c>
       <c r="E39" t="n">
-        <v>1.656598498024525</v>
+        <v>1.696574528940623</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.527543343282574</v>
+        <v>-2.510999244925783</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4691079471438032</v>
+        <v>0.4793131399071517</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5777110607813852</v>
       </c>
       <c r="E40" t="n">
-        <v>1.443478185393189</v>
+        <v>1.482436258699794</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.461278511357281</v>
+        <v>-2.448911759715537</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4303456583744338</v>
+        <v>0.4401598919839868</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5195113765268422</v>
       </c>
       <c r="E41" t="n">
-        <v>1.151970867386192</v>
+        <v>1.195818674758286</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.35144216612646</v>
+        <v>-2.335143255881722</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3855951684007521</v>
+        <v>0.3929428827935359</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.467175487840686</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9088827122235159</v>
+        <v>0.9514759127635397</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.230851089602541</v>
+        <v>-2.218504465343131</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3709265761249613</v>
+        <v>0.382012494345534</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4203116244758976</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7683960232240752</v>
+        <v>0.8090338180744447</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.078312977951236</v>
+        <v>-2.070242507556506</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3158214628221278</v>
+        <v>0.3246744614451258</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3772238098073654</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5741710531583933</v>
+        <v>0.6170801926089727</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.014976985115687</v>
+        <v>-2.00670524089763</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2805588988959388</v>
+        <v>0.2888672383546008</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3361630069380379</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4944714984863711</v>
+        <v>0.5375874010463682</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.940398934366318</v>
+        <v>-1.92969482648939</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2444570841185445</v>
+        <v>0.2508472230488339</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2966040503864451</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2699560378513505</v>
+        <v>0.3104718485663705</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.899420803778323</v>
+        <v>-1.884063001137807</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1817047853706438</v>
+        <v>0.1890293227777112</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2571472728600735</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1453028896202894</v>
+        <v>0.1881101723178519</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.792019871809758</v>
+        <v>-1.777489731527589</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1408120436773935</v>
+        <v>0.144967433248078</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2175995358132893</v>
       </c>
       <c r="E48" t="n">
-        <v>0.05204479830415788</v>
+        <v>0.0958035572574473</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.763300536903722</v>
+        <v>-1.752626315139954</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1339418971745034</v>
+        <v>0.1394324031065894</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1782597649708654</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.06458301366225226</v>
+        <v>-0.02679964757906357</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.709171296683685</v>
+        <v>-1.695382819944442</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07259180606244646</v>
+        <v>0.07376468352383297</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1388364336406801</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.1674290580168633</v>
+        <v>-0.1324897520493508</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.668664634778817</v>
+        <v>-1.657719608234573</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04121016740240538</v>
+        <v>0.04375170686241454</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1001752488348335</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.2769153087792304</v>
+        <v>-0.2407335943931821</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.660108667525395</v>
+        <v>-1.652985403941654</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01137284789589039</v>
+        <v>0.01394854291379743</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.06263005608032798</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3669835149559696</v>
+        <v>-0.3336196340964974</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.621673906159439</v>
+        <v>-1.618280307514013</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.00939739083008798</v>
+        <v>-0.01210238903146562</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.0262965126058363</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4728608650740185</v>
+        <v>-0.4390261254520967</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.570646722501343</v>
+        <v>-1.569565943062146</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.02503026769581745</v>
+        <v>-0.03006150335831218</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.008139493275774607</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5449175037457108</v>
+        <v>-0.5109626097504697</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.574484953320119</v>
+        <v>-1.575970110168</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.03801486898310686</v>
+        <v>-0.03651202443559964</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.04092866101726376</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.6034692787928476</v>
+        <v>-0.5668514711229244</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.561924856823846</v>
+        <v>-1.560084726142097</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.07960170040649645</v>
+        <v>-0.08077335802652946</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.0720185444001312</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.645424502304993</v>
+        <v>-0.6069263091886556</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.518436902651033</v>
+        <v>-1.517034695015189</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1186573610213816</v>
+        <v>-0.1133437320855525</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1012270507395185</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.7462895243015264</v>
+        <v>-0.704544723422859</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.59799495572605</v>
+        <v>-1.600197989210463</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1228694732150037</v>
+        <v>-0.1239167070169801</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1290351644715312</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.8227699176416724</v>
+        <v>-0.7793874797459365</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.593476053432023</v>
+        <v>-1.601165323403786</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1501756219130142</v>
+        <v>-0.1465301260280911</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1550687840631855</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.9381937461921819</v>
+        <v>-0.8908083988949484</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.602167423075683</v>
+        <v>-1.612683065463496</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1641360962831005</v>
+        <v>-0.1600770741793422</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1791673633994561</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.017688367516817</v>
+        <v>-0.9801404308148528</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.620000893743119</v>
+        <v>-1.62727602757537</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1944162182009346</v>
+        <v>-0.1921851283653902</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2013080788150193</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.097992963500173</v>
+        <v>-1.059646030711669</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.64393662078142</v>
+        <v>-1.65227545627392</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2048885562206988</v>
+        <v>-0.2005270134612734</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2211960857762079</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.139704218741619</v>
+        <v>-1.100036197767279</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.620505908063467</v>
+        <v>-1.623922683694609</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2346642737388622</v>
+        <v>-0.2302783341523669</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2388479343452277</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.155960434538985</v>
+        <v>-1.106549540674272</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.681288772946148</v>
+        <v>-1.684449991813733</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.261979571247024</v>
+        <v>-0.2606121290897548</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.254117731557669</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.204104523158093</v>
+        <v>-1.165928368159079</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.788345709653028</v>
+        <v>-1.78596701901371</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.268888752673226</v>
+        <v>-0.2701701960150736</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2666170222473445</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.208526448064517</v>
+        <v>-1.162037684162103</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.86127453489247</v>
+        <v>-1.859409397462974</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.296982918885595</v>
+        <v>-0.2979624514924524</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2762878298787047</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.230289027731564</v>
+        <v>-1.188572893124704</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.970145375691998</v>
+        <v>-1.963708272869599</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3381513447247355</v>
+        <v>-0.3431173188748181</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.282976706443751</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.234122989105602</v>
+        <v>-1.195527818601662</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.045551088799714</v>
+        <v>-2.036626729457536</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3592826564913487</v>
+        <v>-0.3618638407953464</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2864591254782056</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.232571350903955</v>
+        <v>-1.184768817863826</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.190029708628471</v>
+        <v>-2.184451984039609</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.409018638076769</v>
+        <v>-0.4144133864626056</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2866870153063744</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.207959831755818</v>
+        <v>-1.172465497972464</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.327080714455789</v>
+        <v>-2.323227845540772</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4139156911903792</v>
+        <v>-0.4186334276250254</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2835268960419274</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.179547286950186</v>
+        <v>-1.146987891463344</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.444058010969976</v>
+        <v>-2.446441580974708</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4384436512058024</v>
+        <v>-0.4465147315212094</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2768031437050577</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.287604493566933</v>
+        <v>-1.263066774820681</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.557528263592862</v>
+        <v>-2.561914813100034</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4721948316950096</v>
+        <v>-0.4784044341049816</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2665217246234474</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.278636219936029</v>
+        <v>-1.256715670813704</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.679503860052999</v>
+        <v>-2.682716922178108</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4774114832432358</v>
+        <v>-0.4839211666261678</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2526056634135529</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.229987116996574</v>
+        <v>-1.216127279538151</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.813978560941734</v>
+        <v>-2.820177794700201</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5163189331336712</v>
+        <v>-0.5285063680964508</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.235143061061779</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.192006136614119</v>
+        <v>-1.182073578393277</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.895037018881551</v>
+        <v>-2.908211305499309</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5607138393528087</v>
+        <v>-0.574069272411561</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2148433725277889</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.170972412155785</v>
+        <v>-1.17013316130458</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.020448908434486</v>
+        <v>-3.033715293074434</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5751848173293332</v>
+        <v>-0.5900888389863488</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.192381626654395</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.054298246217942</v>
+        <v>-1.058074265127689</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.063588597900877</v>
+        <v>-3.077609759378299</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.579969035117745</v>
+        <v>-0.5911622993774254</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1684388070553021</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9452785847732873</v>
+        <v>-0.9510142788174261</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.095478605444987</v>
+        <v>-3.111985498640497</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5881913757609856</v>
+        <v>-0.6010899782328535</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.144092588284294</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7548247542519387</v>
+        <v>-0.7706284089071577</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.137994651019402</v>
+        <v>-3.153592457446219</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5680304477910785</v>
+        <v>-0.5793578945996434</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1199782951860186</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.5655724674637838</v>
+        <v>-0.5851948354761223</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.194015865178712</v>
+        <v>-3.200825019613927</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5929335090227017</v>
+        <v>-0.6102967308483654</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.09693540865420108</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.3783768331976233</v>
+        <v>-0.3992391699457907</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.212409852948079</v>
+        <v>-3.214920286453574</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5445814374528226</v>
+        <v>-0.5654834190449786</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.07543221089284746</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.1201919214440797</v>
+        <v>-0.1424436574938791</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.234667993164985</v>
+        <v>-3.240106350879209</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4970643472894117</v>
+        <v>-0.5197039928896229</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.05546174100153652</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1517912257795353</v>
+        <v>0.1299182504699964</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.214043525480749</v>
+        <v>-3.216323713930772</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4237433430548206</v>
+        <v>-0.4428039741238742</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.03719175239593218</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3682325564957651</v>
+        <v>0.3466730804140747</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.238989891080422</v>
+        <v>-3.241628712888372</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3881050679917549</v>
+        <v>-0.4080860693620212</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.02059555038481054</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6616123309803787</v>
+        <v>0.6361060581994517</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.1731468193031</v>
+        <v>-3.178555290904163</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3336586690198092</v>
+        <v>-0.3513738150759566</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.006824523641906722</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8823847084221965</v>
+        <v>0.8616266681097531</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.11614302293355</v>
+        <v>-3.119798582509639</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.325024021999087</v>
+        <v>-0.3362227755448581</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.002777938956240865</v>
       </c>
       <c r="E86" t="n">
-        <v>1.134786962239492</v>
+        <v>1.118524647235358</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.037025942507822</v>
+        <v>-3.044196169983672</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2999172472614299</v>
+        <v>-0.3160258622550229</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.006257731422498502</v>
       </c>
       <c r="E87" t="n">
-        <v>1.340239962043429</v>
+        <v>1.32306520570688</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.91811214784496</v>
+        <v>-2.925949628541173</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.262744411775666</v>
+        <v>-0.2755466467806078</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.001410146798521217</v>
       </c>
       <c r="E88" t="n">
-        <v>1.483083384537824</v>
+        <v>1.460561453628225</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.751670894367182</v>
+        <v>-2.760256137813088</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2202378199717404</v>
+        <v>-0.2304448424971191</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.01342432169955668</v>
       </c>
       <c r="E89" t="n">
-        <v>1.55831649009402</v>
+        <v>1.538491018496324</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.495710363321739</v>
+        <v>-2.505769175122668</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.2071324543904549</v>
+        <v>-0.2152846541558694</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.04014614323685686</v>
       </c>
       <c r="E90" t="n">
-        <v>1.614978120963914</v>
+        <v>1.59510751523614</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.260011397157866</v>
+        <v>-2.266577193243059</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1632358533642204</v>
+        <v>-0.1733770044565104</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.07862724033641204</v>
       </c>
       <c r="E91" t="n">
-        <v>1.60724798630681</v>
+        <v>1.592334815839643</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.911797924071572</v>
+        <v>-1.916862705371288</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1485538428335411</v>
+        <v>-0.1539101662167426</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1273329550226351</v>
       </c>
       <c r="E92" t="n">
-        <v>1.595797335521542</v>
+        <v>1.579314229232425</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.583566672196897</v>
+        <v>-1.585878881482449</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1373715571460422</v>
+        <v>-0.1457945616919329</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1824337139495231</v>
       </c>
       <c r="E93" t="n">
-        <v>1.559359454451259</v>
+        <v>1.535962897291204</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.249854673120965</v>
+        <v>-1.251043408519947</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1090303730595902</v>
+        <v>-0.11727162124381</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2380444611154388</v>
       </c>
       <c r="E94" t="n">
-        <v>1.544362114930701</v>
+        <v>1.52439880126006</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.9354667908464412</v>
+        <v>-0.9342707363993383</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1083771480147931</v>
+        <v>-0.1111095926466244</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2872439637373227</v>
       </c>
       <c r="E95" t="n">
-        <v>1.514127737063623</v>
+        <v>1.492789052266916</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.685628033633518</v>
+        <v>-0.6813433408793629</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1596037757341857</v>
+        <v>-0.1638402847548777</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.3224773319738959</v>
       </c>
       <c r="E96" t="n">
-        <v>1.435293659831906</v>
+        <v>1.416664242681314</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4261750967930152</v>
+        <v>-0.4217049881531286</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2255941433549418</v>
+        <v>-0.2320904084829854</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3385957085121746</v>
       </c>
       <c r="E97" t="n">
-        <v>1.344573448451724</v>
+        <v>1.327606065145269</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2564860157115542</v>
+        <v>-0.2433342961588358</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2561261625122729</v>
+        <v>-0.2640618404374419</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3359245949763588</v>
       </c>
       <c r="E98" t="n">
-        <v>1.25417222558548</v>
+        <v>1.239710396419107</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1077190436045819</v>
+        <v>-0.09368659859463935</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.2915967093892329</v>
+        <v>-0.3015127997518028</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3187574942131225</v>
       </c>
       <c r="E99" t="n">
-        <v>1.16669252276086</v>
+        <v>1.1569545292359</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08584294268547477</v>
+        <v>0.106095358756894</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3365704303306045</v>
+        <v>-0.3447110416031608</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2975382669996245</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9863987508727801</v>
+        <v>0.9730725940065117</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1525999805969032</v>
+        <v>0.1717923545321343</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3095783907811192</v>
+        <v>-0.316466224983635</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2820975260574978</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8529096817976698</v>
+        <v>0.8377799894902576</v>
       </c>
       <c r="F101" t="n">
-        <v>0.20180960063829</v>
+        <v>0.2179115065044387</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3588014290773944</v>
+        <v>-0.3692524198734724</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.283488853038758</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7338690236340444</v>
+        <v>0.7155396874564117</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1996254746948552</v>
+        <v>0.2154212003812764</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3274429674030698</v>
+        <v>-0.3381733018690984</v>
       </c>
     </row>
   </sheetData>
